--- a/Deposit_Records.xlsx
+++ b/Deposit_Records.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -362,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,483 +367,1040 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Fee Deposited</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Deposition Date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>EMail ID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Contact Number</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Deposit Pattern</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Total Fee</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Joining Date</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Abmejdh</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3453</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4/14/21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Xstvy</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Abmejdh.Xstvy@gmail.com</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4933888338</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Arrogant</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3813</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2021-04-04 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Abvofj</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34234</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4/14/21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vhplxgk</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Abvofj.Vhplxgk@gmail.com</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2415015373</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Late Depositor</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2020-11-08 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abvofj</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4/14/21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vhplxgk</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Abvofj.Vhplxgk@gmail.com</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2415015373</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Late Depositor</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2020-11-08 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aclaolh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7656</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4/15/21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vfupl</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Aclaolh.Vfupl@gmail.com</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6741241134</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Financially Weak</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3269</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>02/06/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acnvxnf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7654</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4/15/21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gyjud</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Acnvxnf.Gyjud@gmail.com</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8710720585</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Intelligent</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2092</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>08/23/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acnvxnf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23423</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4/15/21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gyjud</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Acnvxnf.Gyjud@gmail.com</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8710720585</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Intelligent</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2092</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>08/23/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>3453</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acrmxcf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12332</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4/15/21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Souga</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Acrmxcf.Souga@gmail.com</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6510550767</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Financially Weak</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>03/02/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adsncbr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>4/14/21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Xstvy</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Abmejdh.Xstvy@gmail.com</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>4933888338</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pajcc</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Adsncbr.Pajcc@gmail.com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4965771898</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Arrogant</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Yearly</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>3813</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>44290</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Abvofj</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1547</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2020-12-17 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aedeymy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23434</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4/14/21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Krbrl</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Aedeymy.Krbrl@gmail.com</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5977291437</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Studious</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1543</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2020-10-06 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>34234</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bajpgvf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4/15/21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Totzk</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Bajpgvf.Totzk@gmail.com</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>8924493953</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Intelligent</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>11/24/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brbupjy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54321</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>4/14/21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Vhplxgk</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Abvofj.Vhplxgk@gmail.com</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2415015373</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Late Depositor</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dbjlu</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Brbupjy.Dbjlu@gmail.com</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>9484727415</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Studious</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2020-12-31 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ramu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4/15/21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>yhut</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>123564656</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>3546</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>07/29/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4/15/21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sica</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>sam@gmail.com</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>7828515205</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3454</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>05/04/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sybmxac</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23423</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4/14/21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ishas</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sybmxac.Ishas@gmail.com</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3753607969</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Studious</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>Yearly</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>1074</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Abvofj</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1256</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2020-06-29 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Zzdtyua</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12323</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>4/14/21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Vhplxgk</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Abvofj.Vhplxgk@gmail.com</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2415015373</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Late Depositor</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Yearly</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Hvlgk</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Zzdtyua.Hvlgk@gmail.com</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>8193764008</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Financially Weak</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>1074</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Adsncbr</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>234</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4/14/21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pajcc</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adsncbr.Pajcc@gmail.com</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4965771898</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Arrogant</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Yearly</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>1547</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>44182</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Aedeymy</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>23434</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4/14/21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Krbrl</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Aedeymy.Krbrl@gmail.com</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5977291437</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Studious</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1543</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>44110</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Brbupjy</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>54321</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4/14/21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Dbjlu</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Brbupjy.Dbjlu@gmail.com</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>9484727415</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Studious</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>1967</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Sybmxac</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23423</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4/14/21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ishas</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sybmxac.Ishas@gmail.com</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3753607969</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Studious</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Yearly</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1256</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>44011</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Zzdtyua</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>12323</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4/14/21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Hvlgk</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Zzdtyua.Hvlgk@gmail.com</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8193764008</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Financially Weak</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>2212</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>44011</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2212</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2020-06-29 00:00:00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Deposit_Records.xlsx
+++ b/Deposit_Records.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11/08/2020</t>
+          <t>08/11/2020</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11/08/2020</t>
+          <t>08/11/2020</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>05/04/2021</t>
+          <t>04/05/2021</t>
         </is>
       </c>
     </row>
